--- a/sprawka/lab1/wyniki.xlsx
+++ b/sprawka/lab1/wyniki.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SuperCiuper\Documents\GitHub\PEAproject\sprawka\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291FF7D0-98ED-4B9C-9C41-0EDC7D12C145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7EE41B-94D0-40E4-9F3C-C4F9F47BBD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{35CB0FE1-15B9-4927-961C-D0566F903D09}"/>
   </bookViews>
@@ -160,10 +160,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$E$10</c:f>
+              <c:f>Sheet1!$E$4:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>9</c:v>
                 </c:pt>
@@ -184,16 +184,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$F$10</c:f>
+              <c:f>Sheet1!$F$4:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.40467000000000003</c:v>
                 </c:pt>
@@ -269,10 +272,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$E$10</c:f>
+              <c:f>Sheet1!$E$4:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>9</c:v>
                 </c:pt>
@@ -293,32 +296,35 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$4:$G$10</c:f>
+              <c:f>Sheet1!$G$4:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="1">
+                <c:ptCount val="8"/>
+                <c:pt idx="2">
                   <c:v>4.0467000000000004</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>40.990400000000008</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>493.596</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>6157.0599999999995</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>82921.72</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1228000.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -1476,10 +1482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E030250-1702-4C2B-BFB2-8B2C0A8742D5}">
-  <dimension ref="C3:G10"/>
+  <dimension ref="C3:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1528,12 +1534,8 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F10" si="0">D5/10</f>
+        <f t="shared" ref="F5:F9" si="0">D5/10</f>
         <v>3.7264000000000004</v>
-      </c>
-      <c r="G5">
-        <f>C5/10</f>
-        <v>4.0467000000000004</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
@@ -1552,8 +1554,8 @@
         <v>41.132999999999996</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G10" si="2">C6/10</f>
-        <v>40.990400000000008</v>
+        <f>C5/10</f>
+        <v>4.0467000000000004</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
@@ -1572,8 +1574,8 @@
         <v>473.62</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
-        <v>493.596</v>
+        <f t="shared" ref="G7:G11" si="2">C6/10</f>
+        <v>40.990400000000008</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
@@ -1593,7 +1595,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>6157.0599999999995</v>
+        <v>493.596</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
@@ -1613,7 +1615,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>82921.72</v>
+        <v>6157.0599999999995</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
@@ -1632,6 +1634,15 @@
         <v>1199163.3333333333</v>
       </c>
       <c r="G10">
+        <f t="shared" si="2"/>
+        <v>82921.72</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="2"/>
         <v>1228000.5</v>
       </c>
